--- a/dataset/NEW_TEST/selec/SS_over_all.xlsx
+++ b/dataset/NEW_TEST/selec/SS_over_all.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9002816597620646</v>
+        <v>0.9186616818110148</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6276612763693713</v>
+        <v>0.7382376318130071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8152607772004</v>
+        <v>0.7048195373085259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08480900855589824</v>
+        <v>0.04383241003852829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7092657828959373</v>
+        <v>0.7211416390314392</v>
       </c>
     </row>
   </sheetData>
